--- a/James_Caballero_Week2HW_FINAL.xlsx
+++ b/James_Caballero_Week2HW_FINAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JamesJennifer/Code/SavvyCoders/homework/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{602B7A9C-933D-EB4A-84E7-9F29AEEDF8B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEDF23C-B12E-9F46-A56B-9AC33543EF7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="500" windowWidth="20760" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="180" yWindow="500" windowWidth="19400" windowHeight="18740" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Payments" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="170">
   <si>
     <t>Expenses</t>
   </si>
@@ -558,7 +558,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,6 +623,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF1F2328"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -665,7 +678,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -726,13 +739,94 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2170,6 +2264,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Credit Card Balance</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" baseline="0"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6770,7 +6890,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{805C44BE-5293-874D-8FC2-FE18D3C2AAAF}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{805C44BE-5293-874D-8FC2-FE18D3C2AAAF}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:E21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -6982,19 +7102,19 @@
     <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="18">
-    <format dxfId="30">
+    <format dxfId="37">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="36">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="35">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="34">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="3">
@@ -7005,22 +7125,22 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="31">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="23">
+    <format dxfId="30">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="29">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="28">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="20">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="3">
@@ -7031,22 +7151,22 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="19">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="18">
+    <format dxfId="25">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="24">
       <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="23">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="15">
+    <format dxfId="22">
       <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="14">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="3">
@@ -7057,7 +7177,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -7112,20 +7232,34 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4DF659CC-4656-1849-AC79-80AE2E98C8DE}" name="Table1" displayName="Table1" ref="A2:I210" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4DF659CC-4656-1849-AC79-80AE2E98C8DE}" name="Table1" displayName="Table1" ref="A2:I210" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18" tableBorderDxfId="16">
   <autoFilter ref="A2:I210" xr:uid="{4DF659CC-4656-1849-AC79-80AE2E98C8DE}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{FFE230B6-3FBD-1C43-BE09-D9E31DE31F2E}" name="Document Date" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{9A57CD02-E970-0040-8910-8D771AA79C3E}" name="Supplier" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{411D5167-6FA6-E847-99CB-7C9988C9D198}" name="Reference" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{2D5BC9D5-E7EA-5344-8721-D4423D9BA21E}" name="Description" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{FC3A4114-E460-3949-B0D1-52EC52A03A25}" name="Tax Inclusive Amount" dataDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{57D9819A-9814-F240-847C-068F19F79A78}" name="Column1" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{1C1500A8-5458-9D41-92A3-BECD0FCA4ECF}" name="Bank Code" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{B88EA393-7184-0D48-9020-D1BBE339F67F}" name="Account Code" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{1F8F88D9-82B9-8342-966C-E66FEBE9E6EA}" name="Payment Date" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{FFE230B6-3FBD-1C43-BE09-D9E31DE31F2E}" name="Document Date" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{9A57CD02-E970-0040-8910-8D771AA79C3E}" name="Supplier" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{411D5167-6FA6-E847-99CB-7C9988C9D198}" name="Reference" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{2D5BC9D5-E7EA-5344-8721-D4423D9BA21E}" name="Description" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{FC3A4114-E460-3949-B0D1-52EC52A03A25}" name="Tax Inclusive Amount" dataDxfId="11" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{57D9819A-9814-F240-847C-068F19F79A78}" name="Column1" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{1C1500A8-5458-9D41-92A3-BECD0FCA4ECF}" name="Bank Code" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{B88EA393-7184-0D48-9020-D1BBE339F67F}" name="Account Code" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{1F8F88D9-82B9-8342-966C-E66FEBE9E6EA}" name="Payment Date" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E6141A20-1295-3C4D-A5B4-021BD067EAD2}" name="Table3" displayName="Table3" ref="A3:E21" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A3:E21" xr:uid="{E6141A20-1295-3C4D-A5B4-021BD067EAD2}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{85E02CB5-4FDE-4B4B-8B6D-15F3AFE4B971}" name="Column1" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{5FC68589-5974-E646-BF21-FB5D6EBCFE84}" name="Student Name" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{CC07726C-601D-F148-80A5-AC0C3ACA5B35}" name="Age" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{0D36937E-53A6-C548-9055-BE7E2F9642C3}" name="Grade" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{A3CC586B-018C-514E-825D-1CF81B886A77}" name="Class" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -7428,7 +7562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8E5747-990A-7341-91C0-AE4965553330}">
   <dimension ref="A3:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -13815,269 +13949,293 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="28"/>
+    <col min="5" max="5" width="16" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="28" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="29">
+        <v>12</v>
+      </c>
+      <c r="D4" s="28">
+        <v>85</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="16">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="29">
+        <v>11</v>
+      </c>
+      <c r="D5" s="28">
+        <v>72</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="29">
+        <v>13</v>
+      </c>
+      <c r="D6" s="28">
+        <v>60</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="29">
         <v>12</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D7" s="28">
+        <v>95</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="29"/>
+      <c r="B8" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="29">
+        <v>14</v>
+      </c>
+      <c r="D8" s="28">
+        <v>88</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="29">
+        <v>12</v>
+      </c>
+      <c r="D9" s="28">
+        <v>99</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="29">
+        <v>11</v>
+      </c>
+      <c r="D10" s="28">
+        <v>75</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="29">
+        <v>13</v>
+      </c>
+      <c r="D11" s="28">
+        <v>100</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="29">
+        <v>13</v>
+      </c>
+      <c r="D12" s="28">
+        <v>75</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="29">
+        <v>15</v>
+      </c>
+      <c r="D13" s="28">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="E13" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="16">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="29">
         <v>11</v>
       </c>
-      <c r="D5" s="14">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="D14" s="28">
+        <v>85</v>
+      </c>
+      <c r="E14" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="16">
-        <v>13</v>
-      </c>
-      <c r="D6" s="14">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="16">
-        <v>12</v>
-      </c>
-      <c r="D7" s="14">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="16">
-        <v>14</v>
-      </c>
-      <c r="D8" s="14">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="16">
-        <v>12</v>
-      </c>
-      <c r="D9" s="14">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="16">
-        <v>11</v>
-      </c>
-      <c r="D10" s="14">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="16">
-        <v>13</v>
-      </c>
-      <c r="D11" s="14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="16">
-        <v>13</v>
-      </c>
-      <c r="D12" s="14">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" s="16">
-        <v>15</v>
-      </c>
-      <c r="D13" s="14">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="16">
-        <v>11</v>
-      </c>
-      <c r="D14" s="14">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="28">
         <f>MIN(C4:C14)</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="D16" s="28">
+        <f>MIN(D4:D14)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="28">
         <f>MAX(C4:C14)</f>
         <v>15</v>
       </c>
-      <c r="D17">
-        <f>MAX(D4:D14)+MIN(D4:D14)</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="D17" s="28">
+        <f>MAX(D4:D14)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="C18" s="17">
-        <f>MODE(C4:C14)+AVERAGE(C4:C14)</f>
-        <v>24.454545454545453</v>
-      </c>
-      <c r="D18" s="17">
+      <c r="C18" s="30">
+        <f>AVERAGE(C4:C14)</f>
+        <v>12.454545454545455</v>
+      </c>
+      <c r="D18" s="30">
         <f>AVERAGE(D4:D14)</f>
         <v>83.545454545454547</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="28">
         <f>MODE(C4:C14)</f>
         <v>12</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="28">
         <f>MODE(D4:D14)</f>
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="28">
         <f>MEDIAN(C4:C14)</f>
         <v>12</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="28">
         <f>MEDIAN(D4:D14)</f>
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="28">
         <f>COUNT(B4:B14)</f>
         <v>0</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="28">
         <f>COUNT(C4:C14)</f>
         <v>11</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="28">
         <f>COUNT(D4:D14)</f>
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -14085,8 +14243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87482D53-F41A-8F45-B5CB-E47BFB6D7F04}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
